--- a/QLPhoThong/obj/Release/Package/PackageTmp/Areas/Admin/FileExcel/BieuMauThemHocSinh.xlsx
+++ b/QLPhoThong/obj/Release/Package/PackageTmp/Areas/Admin/FileExcel/BieuMauThemHocSinh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Nam</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Kinh</t>
   </si>
   <si>
-    <t>10A2</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -70,13 +67,64 @@
   </si>
   <si>
     <t>Danh sách học sinh</t>
+  </si>
+  <si>
+    <t>Năm học 2023 - 2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Đậu</t>
+  </si>
+  <si>
+    <t>Toàn</t>
+  </si>
+  <si>
+    <t>Lộc Ninh</t>
+  </si>
+  <si>
+    <t>Bàu Bàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Khang Thái</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Trần Xuân</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>0352931831</t>
+  </si>
+  <si>
+    <t>0364584623</t>
+  </si>
+  <si>
+    <t>0352931833</t>
+  </si>
+  <si>
+    <t>Năm nhập học</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +152,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -125,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,11 +201,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,8 +225,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,82 +513,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>37698</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>352931831</v>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -537,31 +613,34 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>37698</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>352931831</v>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
@@ -572,8 +651,91 @@
       <c r="K4" s="1">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>37699</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37700</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>